--- a/to_save/output.xlsx
+++ b/to_save/output.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usenk\Desktop\Project\Navigator\to_save\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F33498-6E0D-4983-97A1-7A77971D3C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Старт:4</t>
   </si>
@@ -22,30 +28,86 @@
     <t>Длина:23246</t>
   </si>
   <si>
+    <t xml:space="preserve">База: </t>
+  </si>
+  <si>
     <t>4002</t>
   </si>
   <si>
-    <t>Отгруженное количество Cи: [8, 8, 8, 8, 8, 8, 8, 10, 10, 10, 10, 10, 10, 10, 10, 10, 0, 10, 10, 10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+    <t>П-326-1</t>
+  </si>
+  <si>
+    <t>П-326-2</t>
+  </si>
+  <si>
+    <t>П-321М</t>
+  </si>
+  <si>
+    <t>ЭТИ-69М</t>
+  </si>
+  <si>
+    <t>П-321</t>
+  </si>
+  <si>
+    <t>Ц-4353</t>
+  </si>
+  <si>
+    <t>В3-41</t>
+  </si>
+  <si>
+    <t>М5-12</t>
+  </si>
+  <si>
+    <t>М4200</t>
+  </si>
+  <si>
+    <t>М4251</t>
+  </si>
+  <si>
+    <t>Э8023</t>
+  </si>
+  <si>
+    <t>В81</t>
+  </si>
+  <si>
+    <t>М4202</t>
+  </si>
+  <si>
+    <t>Э8021</t>
+  </si>
+  <si>
+    <t>М42100</t>
+  </si>
+  <si>
+    <t>С1-65</t>
+  </si>
+  <si>
+    <t>В7-22А</t>
+  </si>
+  <si>
+    <t>Г3-118</t>
   </si>
   <si>
     <t>4003</t>
   </si>
   <si>
-    <t>Отгруженное количество Cи: [0, 0, 0, 0, 0, 0, 0, 4, 4, 4, 4, 4, 4, 10, 4, 4, 0, 4, 4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
     <t>4011</t>
-  </si>
-  <si>
-    <t>Отгруженное количество Cи: [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 8, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -73,21 +135,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -125,9 +196,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,9 +230,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,9 +282,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -368,43 +475,285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/to_save/output.xlsx
+++ b/to_save/output.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usenk\Desktop\Project\Navigator\to_save\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F33498-6E0D-4983-97A1-7A77971D3C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Старт:4</t>
   </si>
@@ -86,6 +80,9 @@
   </si>
   <si>
     <t>Г3-118</t>
+  </si>
+  <si>
+    <t>В7-40</t>
   </si>
   <si>
     <t>4003</t>
@@ -97,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,25 +137,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,9 +185,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,27 +219,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,27 +253,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,16 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -500,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -508,7 +459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -516,7 +467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -524,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -532,7 +483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -540,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -548,7 +499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -556,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -564,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -572,7 +523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -580,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -588,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -596,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -604,7 +555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -612,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -620,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -628,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -636,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -644,15 +595,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -660,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -668,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -676,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -684,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -692,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -700,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -708,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -716,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -724,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -732,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -740,15 +691,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>17</v>
       </c>

--- a/to_save/output.xlsx
+++ b/to_save/output.xlsx
@@ -14,81 +14,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
-  <si>
-    <t>Старт:4</t>
-  </si>
-  <si>
-    <t>Длина:23246</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="51">
+  <si>
+    <t>Старт:4050</t>
+  </si>
+  <si>
+    <t>Длина:14801</t>
   </si>
   <si>
     <t xml:space="preserve">База: </t>
   </si>
   <si>
-    <t>4002</t>
-  </si>
-  <si>
-    <t>П-326-1</t>
-  </si>
-  <si>
-    <t>П-326-2</t>
-  </si>
-  <si>
-    <t>П-321М</t>
-  </si>
-  <si>
-    <t>ЭТИ-69М</t>
-  </si>
-  <si>
-    <t>П-321</t>
-  </si>
-  <si>
-    <t>Ц-4353</t>
-  </si>
-  <si>
-    <t>В3-41</t>
-  </si>
-  <si>
-    <t>М5-12</t>
-  </si>
-  <si>
-    <t>М4200</t>
-  </si>
-  <si>
-    <t>М4251</t>
-  </si>
-  <si>
-    <t>Э8023</t>
-  </si>
-  <si>
-    <t>В81</t>
-  </si>
-  <si>
-    <t>М4202</t>
-  </si>
-  <si>
-    <t>Э8021</t>
-  </si>
-  <si>
-    <t>М42100</t>
-  </si>
-  <si>
-    <t>С1-65</t>
-  </si>
-  <si>
-    <t>В7-22А</t>
-  </si>
-  <si>
-    <t>Г3-118</t>
-  </si>
-  <si>
-    <t>В7-40</t>
-  </si>
-  <si>
-    <t>4003</t>
-  </si>
-  <si>
-    <t>4011</t>
+    <t>4032</t>
+  </si>
+  <si>
+    <t>ЭТИ-69</t>
+  </si>
+  <si>
+    <t>ЭТИ-64</t>
+  </si>
+  <si>
+    <t>С1-91/1</t>
+  </si>
+  <si>
+    <t>Г5-60</t>
+  </si>
+  <si>
+    <t>Ч3-57</t>
+  </si>
+  <si>
+    <t>Э-536</t>
+  </si>
+  <si>
+    <t>Ч3-54</t>
+  </si>
+  <si>
+    <t>В7-16</t>
+  </si>
+  <si>
+    <t>С1-103</t>
+  </si>
+  <si>
+    <t>Г3-112</t>
+  </si>
+  <si>
+    <t>В3-44</t>
+  </si>
+  <si>
+    <t>В3-56</t>
+  </si>
+  <si>
+    <t>ИПЗ-4</t>
+  </si>
+  <si>
+    <t>В7-36</t>
+  </si>
+  <si>
+    <t>В6-1</t>
+  </si>
+  <si>
+    <t>В3-36</t>
+  </si>
+  <si>
+    <t>Г4-102А</t>
+  </si>
+  <si>
+    <t>С-196</t>
+  </si>
+  <si>
+    <t>Г4-70</t>
+  </si>
+  <si>
+    <t>С1-65А</t>
+  </si>
+  <si>
+    <t>С1-70/2</t>
+  </si>
+  <si>
+    <t>Э 515</t>
+  </si>
+  <si>
+    <t>В3-55</t>
+  </si>
+  <si>
+    <t>Г3-56-1</t>
+  </si>
+  <si>
+    <t>В3-57</t>
+  </si>
+  <si>
+    <t>Г3-121</t>
+  </si>
+  <si>
+    <t>В3-48</t>
+  </si>
+  <si>
+    <t>РВ7-32</t>
+  </si>
+  <si>
+    <t>Г4-151</t>
+  </si>
+  <si>
+    <t>Г4-107</t>
+  </si>
+  <si>
+    <t>М3-51</t>
+  </si>
+  <si>
+    <t>В7-15</t>
+  </si>
+  <si>
+    <t>Г4-102</t>
+  </si>
+  <si>
+    <t>Я3Ч-51</t>
+  </si>
+  <si>
+    <t>Х1-30</t>
+  </si>
+  <si>
+    <t>М3-1А</t>
+  </si>
+  <si>
+    <t>С1-49</t>
+  </si>
+  <si>
+    <t>С1-67</t>
+  </si>
+  <si>
+    <t>Ч3-34</t>
+  </si>
+  <si>
+    <t>ВУ-15</t>
+  </si>
+  <si>
+    <t>С502</t>
+  </si>
+  <si>
+    <t>Г4-18</t>
+  </si>
+  <si>
+    <t>4035</t>
+  </si>
+  <si>
+    <t>4039</t>
+  </si>
+  <si>
+    <t>4052</t>
+  </si>
+  <si>
+    <t>4055</t>
+  </si>
+  <si>
+    <t>4068</t>
   </si>
 </sst>
 </file>
@@ -429,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -464,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -472,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -480,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -488,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -496,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -504,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -512,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -520,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -528,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -536,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -544,7 +622,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -552,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -560,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -568,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -576,7 +654,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -584,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -592,119 +670,1767 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>17</v>
       </c>
-      <c r="B34">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>8</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>36</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>37</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>38</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>42</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>44</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>24</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>25</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>26</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>27</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>29</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>30</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>33</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>34</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>35</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>36</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>38</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>39</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>41</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>42</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>43</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>44</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>17</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>18</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>21</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>24</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>25</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>26</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>27</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>29</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>30</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>31</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
